--- a/result_excel/iv_values_woe.xlsx
+++ b/result_excel/iv_values_woe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4052485986303752</v>
+        <v>0.4077322773779465</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3859355862501613</v>
+        <v>0.3817639609431955</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3515219420687812</v>
+        <v>0.3515078900200689</v>
       </c>
     </row>
     <row r="5">
@@ -482,57 +482,57 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3424460100946288</v>
+        <v>0.3467035415386056</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>client_type_woe</t>
+          <t>marital_status_woe</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.2285016354991049</v>
+        <v>0.2748590503758223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>marital_status_woe</t>
+          <t>client_type_woe</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.2204050516124241</v>
+        <v>0.2285644215769939</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>bki_number_of_loans_woe</t>
+          <t>bki_rating_woe</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1566706214875894</v>
+        <v>0.1637189191033656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>loan_amount_woe</t>
+          <t>bki_number_of_loans_woe</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1366173264473371</v>
+        <v>0.156707545128042</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>bki_rating_woe</t>
+          <t>loan_amount_woe</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1332442596830841</v>
+        <v>0.1365457293436452</v>
       </c>
     </row>
     <row r="11">
@@ -542,7 +542,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1297312062885372</v>
+        <v>0.1297076596794291</v>
       </c>
     </row>
     <row r="12">
@@ -552,27 +552,27 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.1264662101050013</v>
+        <v>0.1265339685662344</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>region_of_registration_woe</t>
+          <t>education_woe</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09603082554807145</v>
+        <v>0.09990144437044168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>education_woe</t>
+          <t>region_of_registration_woe</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07418115569859221</v>
+        <v>0.09606941512673281</v>
       </c>
     </row>
     <row r="15">
@@ -582,7 +582,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05873637389584052</v>
+        <v>0.05878409006000258</v>
       </c>
     </row>
     <row r="16">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05869239555949268</v>
+        <v>0.05870600017826831</v>
       </c>
     </row>
     <row r="17">
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.05611798610965892</v>
+        <v>0.05608218937275672</v>
       </c>
     </row>
     <row r="18">
@@ -612,97 +612,67 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0491365265642921</v>
+        <v>0.04915922229053563</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>net_main_income_woe</t>
+          <t>property_object_woe</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.04707731755101498</v>
+        <v>0.04274573500469072</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>property_object_woe</t>
+          <t>net_main_income_woe</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.03296014199182293</v>
+        <v>0.03908505001501993</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>plastic_cards_woe</t>
+          <t>source_of_main_income_woe</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.02805026369111068</v>
+        <v>0.02895811665372052</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>reported_expenses_woe</t>
+          <t>plastic_cards_woe</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.02570489638715173</v>
+        <v>0.02808832683065749</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>max_max_days_past_due_woe</t>
+          <t>previous_loans_count_woe</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.0254077651252723</v>
+        <v>0.02314513288222739</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>previous_loans_count_woe</t>
+          <t>reported_expenses_woe</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.02309412512525995</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>source_of_main_income_woe</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.01460181805407937</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>additional_income_woe</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.008731463665453595</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>deposit_woe</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>0</v>
+        <v>0.02229269506423623</v>
       </c>
     </row>
   </sheetData>
